--- a/biology/Zoologie/Blastozoa/Blastozoa.xlsx
+++ b/biology/Zoologie/Blastozoa/Blastozoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -514,9 +526,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces organismes avaient un mode de vie benthique : ils étaient fixés au fond par une tige (composée d'articles emboités entre eux), au bout de laquelle se trouvait une « thèque » arrondie et très minéralisée, d'où s'élançaient des structures filtrantes. Ils étaient suspensivores et collectaient des particules alimentaires en pleine eau. Suivant les classifications, ce groupe peut être caractérisé par la présence d'hydrospires[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces organismes avaient un mode de vie benthique : ils étaient fixés au fond par une tige (composée d'articles emboités entre eux), au bout de laquelle se trouvait une « thèque » arrondie et très minéralisée, d'où s'élançaient des structures filtrantes. Ils étaient suspensivores et collectaient des particules alimentaires en pleine eau. Suivant les classifications, ce groupe peut être caractérisé par la présence d'hydrospires.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Registre paléontologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Blastozoa apparurent à l'Ordovicien et disparurent vers la fin du Permien ; ils connurent leur apogée au Carbonifère.
 </t>
@@ -576,7 +592,9 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sous-embranchement comprend traditionnellement les classes des :
 Blastoidea Say, 1825 (Blastoïdes, classe fossile)
